--- a/Optimizing Production Lines/Main-problem-Inputs.xlsx
+++ b/Optimizing Production Lines/Main-problem-Inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Se7eN.CO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="One" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Price $</t>
   </si>
   <si>
-    <t>اعداد جدول فوق بیانگر زمان مورد نیاز برای تولید یک خودرو در یک خط تولید بر حسب دقیقه است. اعداد صفر بیانگر عدم توانایی خط تولید متناظر برای تولید خودروی مورد نظر است</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Set up cost ( dollor)</t>
   </si>
   <si>
-    <t>خط تولید</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -74,13 +68,19 @@
   </si>
   <si>
     <t>The highest amount of income (dollar)</t>
+  </si>
+  <si>
+    <t>The numbers in the above table represent the time required to produce a vehicle on a production line, in minutes. Zeros indicate that the corresponding production line is not capable of producing the specified vehicle.</t>
+  </si>
+  <si>
+    <t>Production Lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +144,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="B Lotus"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +203,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -244,7 +256,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,11 +296,14 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -591,23 +606,23 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -615,7 +630,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4">
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -623,7 +638,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4">
+    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -631,7 +646,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4">
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -639,7 +654,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4">
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -647,15 +662,15 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -663,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4">
+    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -671,7 +686,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4">
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -679,7 +694,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4">
+    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -687,7 +702,7 @@
         <v>186000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4">
+    <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -695,7 +710,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.4">
+    <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -711,20 +726,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A21" sqref="A21:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="4"/>
+    <col min="9" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -750,7 +765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -776,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -802,7 +817,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -828,7 +843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -854,7 +869,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -880,9 +895,57 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1"/>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1"/>
-    <row r="16" spans="1:8" ht="14.4">
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6</v>
+      </c>
+      <c r="H11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
+        <v>40000</v>
+      </c>
+      <c r="C12" s="7">
+        <v>38000</v>
+      </c>
+      <c r="D12" s="7">
+        <v>80000</v>
+      </c>
+      <c r="E12" s="7">
+        <v>33000</v>
+      </c>
+      <c r="F12" s="7">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="7">
+        <v>67000</v>
+      </c>
+      <c r="H12" s="7">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>1</v>
       </c>
@@ -905,106 +968,87 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.4">
+    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="7">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="C17" s="7">
-        <v>38000</v>
+        <v>8500</v>
       </c>
       <c r="D17" s="7">
-        <v>80000</v>
+        <v>9000</v>
       </c>
       <c r="E17" s="7">
-        <v>33000</v>
+        <v>4500</v>
       </c>
       <c r="F17" s="7">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="7">
-        <v>67000</v>
+        <v>16000</v>
       </c>
       <c r="H17" s="7">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.4">
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6">
-        <v>6</v>
-      </c>
-      <c r="H21" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.4">
-      <c r="A22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="7">
-        <v>12000</v>
-      </c>
-      <c r="C22" s="7">
-        <v>8500</v>
-      </c>
-      <c r="D22" s="7">
-        <v>9000</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4500</v>
-      </c>
-      <c r="F22" s="7">
-        <v>5000</v>
-      </c>
-      <c r="G22" s="7">
-        <v>16000</v>
-      </c>
-      <c r="H22" s="7">
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="25" spans="1:21" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="1:21" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:H31"/>
+    <mergeCell ref="A21:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1015,47 +1059,47 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="12">
         <v>1920879999.9981785</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1">
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11"/>
       <c r="C4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="2:7" ht="15" thickTop="1">
+    <row r="5" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7">
         <v>671.99999999999966</v>
@@ -1065,9 +1109,9 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="7">
         <v>3438</v>
@@ -1077,9 +1121,9 @@
         <v>5062</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
@@ -1087,9 +1131,9 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>16000</v>
@@ -1097,9 +1141,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7">
         <v>3000</v>
